--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H2">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I2">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J2">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N2">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q2">
-        <v>0.526543175311</v>
+        <v>1.369743409683778</v>
       </c>
       <c r="R2">
-        <v>4.738888577799</v>
+        <v>12.327690687154</v>
       </c>
       <c r="S2">
-        <v>0.001173395548576432</v>
+        <v>0.001624251044813079</v>
       </c>
       <c r="T2">
-        <v>0.001173395548576432</v>
+        <v>0.001624251044813079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H3">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I3">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J3">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q3">
-        <v>2.570475459547</v>
+        <v>14.78725749102511</v>
       </c>
       <c r="R3">
-        <v>23.134279135923</v>
+        <v>133.085317419226</v>
       </c>
       <c r="S3">
-        <v>0.005728275673074511</v>
+        <v>0.01753483043606136</v>
       </c>
       <c r="T3">
-        <v>0.005728275673074511</v>
+        <v>0.01753483043606135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H4">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I4">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J4">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N4">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O4">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P4">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q4">
-        <v>0.4656046408659999</v>
+        <v>2.740244605523111</v>
       </c>
       <c r="R4">
-        <v>4.190441767793999</v>
+        <v>24.662201449708</v>
       </c>
       <c r="S4">
-        <v>0.0010375947094291</v>
+        <v>0.003249400677599791</v>
       </c>
       <c r="T4">
-        <v>0.0010375947094291</v>
+        <v>0.003249400677599791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05565899999999999</v>
+        <v>0.3201913333333333</v>
       </c>
       <c r="H5">
-        <v>0.166977</v>
+        <v>0.960574</v>
       </c>
       <c r="I5">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="J5">
-        <v>0.01431489546586528</v>
+        <v>0.03939146858412543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N5">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O5">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P5">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q5">
-        <v>2.860965531977</v>
+        <v>14.32188318891422</v>
       </c>
       <c r="R5">
-        <v>25.748689787793</v>
+        <v>128.896948700228</v>
       </c>
       <c r="S5">
-        <v>0.006375629534785242</v>
+        <v>0.01698298642565121</v>
       </c>
       <c r="T5">
-        <v>0.006375629534785243</v>
+        <v>0.0169829864256512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I6">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J6">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N6">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q6">
-        <v>18.042383761484</v>
+        <v>8.158775332172002</v>
       </c>
       <c r="R6">
-        <v>162.381453853356</v>
+        <v>73.42897798954802</v>
       </c>
       <c r="S6">
-        <v>0.04020724944146998</v>
+        <v>0.009674731240893443</v>
       </c>
       <c r="T6">
-        <v>0.04020724944146998</v>
+        <v>0.00967473124089344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I7">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J7">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q7">
         <v>88.079205780668</v>
@@ -883,10 +883,10 @@
         <v>792.712852026012</v>
       </c>
       <c r="S7">
-        <v>0.1962835201959255</v>
+        <v>0.1044449208546176</v>
       </c>
       <c r="T7">
-        <v>0.1962835201959255</v>
+        <v>0.1044449208546176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I8">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J8">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N8">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O8">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P8">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q8">
-        <v>15.954280684904</v>
+        <v>16.322064361544</v>
       </c>
       <c r="R8">
-        <v>143.588526164136</v>
+        <v>146.898579253896</v>
       </c>
       <c r="S8">
-        <v>0.03555393520265081</v>
+        <v>0.01935481485460448</v>
       </c>
       <c r="T8">
-        <v>0.03555393520265082</v>
+        <v>0.01935481485460447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.721588000000001</v>
       </c>
       <c r="I9">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636092</v>
       </c>
       <c r="J9">
-        <v>0.4905102745812252</v>
+        <v>0.2346323697636091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N9">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O9">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P9">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q9">
-        <v>98.033058781588</v>
+        <v>85.307238162904</v>
       </c>
       <c r="R9">
-        <v>882.297529034292</v>
+        <v>767.765143466136</v>
       </c>
       <c r="S9">
-        <v>0.2184655697411789</v>
+        <v>0.1011579028134937</v>
       </c>
       <c r="T9">
-        <v>0.2184655697411789</v>
+        <v>0.1011579028134936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H10">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I10">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J10">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N10">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q10">
-        <v>14.95511969836211</v>
+        <v>24.72849479799501</v>
       </c>
       <c r="R10">
-        <v>134.596077285259</v>
+        <v>222.556453181955</v>
       </c>
       <c r="S10">
-        <v>0.0333273161733053</v>
+        <v>0.02932321720136681</v>
       </c>
       <c r="T10">
-        <v>0.0333273161733053</v>
+        <v>0.0293232172013668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H11">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I11">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J11">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q11">
-        <v>73.00781774737145</v>
+        <v>266.959941079655</v>
       </c>
       <c r="R11">
-        <v>657.0703597263431</v>
+        <v>2402.639469716895</v>
       </c>
       <c r="S11">
-        <v>0.1626971013449112</v>
+        <v>0.3165629125545287</v>
       </c>
       <c r="T11">
-        <v>0.1626971013449112</v>
+        <v>0.3165629125545286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H12">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I12">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J12">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N12">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O12">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P12">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q12">
-        <v>13.22431561695044</v>
+        <v>49.47067019549</v>
       </c>
       <c r="R12">
-        <v>119.018840552554</v>
+        <v>445.23603175941</v>
       </c>
       <c r="S12">
-        <v>0.029470238729681</v>
+        <v>0.05866265695060239</v>
       </c>
       <c r="T12">
-        <v>0.029470238729681</v>
+        <v>0.05866265695060237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.580852333333334</v>
+        <v>5.780535</v>
       </c>
       <c r="H13">
-        <v>4.742557000000001</v>
+        <v>17.341605</v>
       </c>
       <c r="I13">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422025</v>
       </c>
       <c r="J13">
-        <v>0.4065781975715678</v>
+        <v>0.7111490510422023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N13">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O13">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P13">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q13">
-        <v>81.25844942977923</v>
+        <v>258.55836314359</v>
       </c>
       <c r="R13">
-        <v>731.326044868013</v>
+        <v>2327.02526829231</v>
       </c>
       <c r="S13">
-        <v>0.1810835413236703</v>
+        <v>0.3066002643357046</v>
       </c>
       <c r="T13">
-        <v>0.1810835413236704</v>
+        <v>0.3066002643357045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H14">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I14">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J14">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N14">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q14">
-        <v>3.258839873974111</v>
+        <v>0.5155770468271113</v>
       </c>
       <c r="R14">
-        <v>29.329558865767</v>
+        <v>4.640193421444001</v>
       </c>
       <c r="S14">
-        <v>0.007262288034378247</v>
+        <v>0.0006113747663030608</v>
       </c>
       <c r="T14">
-        <v>0.007262288034378247</v>
+        <v>0.0006113747663030605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H15">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I15">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J15">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q15">
-        <v>15.90898584469544</v>
+        <v>5.565984471248444</v>
       </c>
       <c r="R15">
-        <v>143.180872602259</v>
+        <v>50.09386024123599</v>
       </c>
       <c r="S15">
-        <v>0.0354529961602963</v>
+        <v>0.006600182215825213</v>
       </c>
       <c r="T15">
-        <v>0.0354529961602963</v>
+        <v>0.006600182215825211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H16">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I16">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J16">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N16">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O16">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P16">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q16">
-        <v>2.881683858622444</v>
+        <v>1.031439327476444</v>
       </c>
       <c r="R16">
-        <v>25.93515472760199</v>
+        <v>9.282953947288</v>
       </c>
       <c r="S16">
-        <v>0.006421800092869786</v>
+        <v>0.001223087764811135</v>
       </c>
       <c r="T16">
-        <v>0.006421800092869787</v>
+        <v>0.001223087764811135</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3444803333333333</v>
+        <v>0.1205213333333333</v>
       </c>
       <c r="H17">
-        <v>1.033441</v>
+        <v>0.361564</v>
       </c>
       <c r="I17">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006308</v>
       </c>
       <c r="J17">
-        <v>0.08859663238134165</v>
+        <v>0.01482711061006307</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N17">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O17">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P17">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q17">
-        <v>17.70686430066322</v>
+        <v>5.390815672000889</v>
       </c>
       <c r="R17">
-        <v>159.361778705969</v>
+        <v>48.517341048008</v>
       </c>
       <c r="S17">
-        <v>0.03945954809379732</v>
+        <v>0.006392465863123667</v>
       </c>
       <c r="T17">
-        <v>0.03945954809379732</v>
+        <v>0.006392465863123665</v>
       </c>
     </row>
   </sheetData>
